--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F2" t="n">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Los Maitenes</t>
+          <t>Extracción Mecanizada de Áridos en Río Maipo Km 1+000 a Km 2+000 Aguas Abajo del Puente San Ramón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>HORMIGONES TRANSEX LIMITADA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>19/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154768730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159469274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos en Río Maipo Km 3+550 a Km 5+600 Aguas Abajo del Puente San Ramón</t>
+          <t>Parque Solar Fotovoltaico Los Maitenes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13/12/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154243372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154768730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DISTRIBUCIÓN DE AGUA POTABLE A LOTEO LOS NOGALES EMPRESA AGUA POTABLE PIRQUE S.A.</t>
+          <t>Extracción Mecanizada de Áridos en Río Maipo Km 3+550 a Km 5+600 Aguas Abajo del Puente San Ramón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EMPRESA DE AGUA POTABLE PIRQUE S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>13/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148914650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154243372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pirque Solaris</t>
+          <t>DISTRIBUCIÓN DE AGUA POTABLE A LOTEO LOS NOGALES EMPRESA AGUA POTABLE PIRQUE S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Los Maitenes Solar SpA</t>
+          <t>EMPRESA DE AGUA POTABLE PIRQUE S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>44000</v>
+        <v>126</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145980342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148914650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización de Planta de Producción y Bodegas de Almacenamiento Pirque</t>
+          <t>Parque Fotovoltaico Pirque Solaris</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Los Maitenes Solar SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>44000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30/01/2018</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138229262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145980342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"Explotación de la Concesión D.E. Nº 1.137. Rio Maipo, Sector: Tramo 43-34 y Banco Decantador 40-37".</t>
+          <t>Regularización de Planta de Producción y Bodegas de Almacenamiento Pirque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPLOTADORA DE ARIDOS CAVILU SPA</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>30/01/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132441687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138229262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Explotación de la Concesión D.E. Nº 1.137. Río Maipo, Sector: Tramo 43-34 y Banco Decantador 40-37</t>
+          <t>"Explotación de la Concesión D.E. Nº 1.137. Rio Maipo, Sector: Tramo 43-34 y Banco Decantador 40-37".</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132389586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132441687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CONCESION DE EXTRACCION DE ARIDOS EN EL RIO MAIPO SECTOR PONIENTE, TRAMOS 43-40, 40-37, 37-34 Y BANCO DECANTADOR DENOMINADO 40-37.</t>
+          <t>Explotación de la Concesión D.E. Nº 1.137. Río Maipo, Sector: Tramo 43-34 y Banco Decantador 40-37</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13/01/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132067304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132389586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
+          <t>CONCESION DE EXTRACCION DE ARIDOS EN EL RIO MAIPO SECTOR PONIENTE, TRAMOS 43-40, 40-37, 37-34 Y BANCO DECANTADOR DENOMINADO 40-37.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>SOCIEDAD EXPLOTADORA DE ARIDOS CAVILU SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>85000</v>
+        <v>200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/09/2016</t>
+          <t>13/01/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132067304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Los Espinos</t>
+          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Unión Comunal de Comité Sin Casa N° 4</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6189</v>
+        <v>85000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/02/2014</t>
+          <t>07/09/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129266765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/02/2014</t>
+          <t>24/02/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129177105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129266765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129254293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129177105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Regularización Unidad de Generación N°3 Central Puntilla</t>
+          <t>Proyecto Habitacional Los Espinos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ELECTRICA PUNTILLA S.A.</t>
+          <t>Unión Comunal de Comité Sin Casa N° 4</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4385</v>
+        <v>6189</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>18/02/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129254293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Unidad de Generación N°3 Central Puntilla</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ELECTRICA PUNTILLA S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>4385</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extracción de Áridos en el Río Maipo, KM. 2,50 al 6,00, aguas abajo Puente San Ramón comuna de Puente Alto, Región Metropolitana.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14/12/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7639759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Extracción de Áridos en el Río Maipo, KM. 2,50 al 6,00, aguas abajo Puente San Ramón comuna de Puente Alto, Región Metropolitana.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>14/12/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7639759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Prunesco SpA</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Modificación Sistema de Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Prunesco SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>16/11/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Prunesco SpA</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/11/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6190912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Modificación Sistema de Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Prunesco SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6190912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>350</v>
+        <v>1750</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"Modificación del sistema de tratamiento y disposición de residuos industriales liquidos de viña El Principal" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Viña El Principal S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/01/2010</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4301270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación del sistema de tratamiento y disposición de residuos industriales liquidos de viña El Principal (e-seia)</t>
+          <t>"Modificación del sistema de tratamiento y disposición de residuos industriales liquidos de viña El Principal" (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>06/01/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4271173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4301270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE Y REHABILITACIÓN AMBIENTAL DE POZO DE EXTRACCION DE ÁRIDOS (e-seia)</t>
+          <t>Modificación del sistema de tratamiento y disposición de residuos industriales liquidos de viña El Principal (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Rene Quintar Rodriguez</t>
+          <t>Viña El Principal S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29/10/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4044457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4271173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE PARTICULAR DE LA EMPRESA AGUAS PIRQUE S.A. (e-seia)</t>
+          <t>PLAN DE CIERRE Y REHABILITACIÓN AMBIENTAL DE POZO DE EXTRACCION DE ÁRIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AGUAS PIRQUE S.A.</t>
+          <t>Rene Quintar Rodriguez</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1900</v>
+        <v>105</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07/10/2009</t>
+          <t>29/10/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4094056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4044457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE PARTICULAR DE LA EMPRESA AGUAS PIRQUE S.A (e-seia)</t>
+          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE PARTICULAR DE LA EMPRESA AGUAS PIRQUE S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,21 +2507,21 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29/09/2009</t>
+          <t>07/10/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4094056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE PARTICULAR DE LA EMPRESA AGUAS PIRQUE S.A (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AGUAS PIRQUE S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>29/09/2009</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE PRODUCCIÓN Y DISTRIBUCIÓN DE AGUA POTABLE RURAL DE LA EMPRESA AGUAS PIRQUE (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AGUAS PIRQUE S.A.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>26/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3780115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE PRODUCCIÓN Y DISTRIBUCIÓN DE AGUA POTABLE RURAL DE LA EMPRESA AGUAS PIRQUE (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AGUAS PIRQUE S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>26/06/2009</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3780115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Agua Potable San Vicente-Lo Arcaya de Pirque (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2649002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Mejoramiento Sistema de Agua Potable San Vicente-Lo Arcaya de Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>234</v>
+        <v>1600</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>18/01/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2649002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Agua Potable San Vicente - Lo Arcaya (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1500</v>
+        <v>234</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>19/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Mejoramiento Sistema de Agua Potable San Vicente - Lo Arcaya (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>234</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>19/10/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Extraccion de Arenas Isla de Pirque (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Pontificia Universidad Católica de Chile</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CENTRO MULTICULTURAL LOS ALMENDRALES DE PIRQUE (e-seia)</t>
+          <t>Extraccion de Arenas Isla de Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CHRISTIAN HITSCHFELD JIMENEZ</t>
+          <t>Pontificia Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3700</v>
+        <v>350</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>CENTRO MULTICULTURAL LOS ALMENDRALES DE PIRQUE (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,16 +4130,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CHRISTIAN HITSCHFELD JIMENEZ</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>210</v>
+        <v>3700</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Proyecto Tienda de Abastecimiento Trayken Exp. N° 072/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Paola Beatriz Pérez Del Castillo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto Tienda de Abastecimiento Trayken Exp. N° 072/07 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Paola Beatriz Pérez Del Castillo</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>27/04/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,16 +4514,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE RILES Y RISES PRUNESCO S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Prunesco SpA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>04/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE RILES Y RISES PRUNESCO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Prunesco SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>04/01/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mejoramiento Campo Deportivo Municipal Los Corrales Exp. Nº002/07 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Jaime Escudero Ramos</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1029</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>28/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Mejoramiento Campo Deportivo Municipal Los Corrales Exp. Nº002/07 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Jaime Escudero Ramos</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>28/12/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Residuos Industriales Líquidos Viña William Fevre Chile S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Viña William Fevre Chile S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>03/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento y disposición de residuos industriales liquidos Viña El Principal Exp. Nº97/06 (e-seia)</t>
+          <t>Sistema de tratamiento de Residuos Industriales Líquidos Viña William Fevre Chile S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Viña El Principal S.A.</t>
+          <t>Viña William Fevre Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/08/2006</t>
+          <t>03/10/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1642277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRATAMIENTO Y DISPOSICIÓN DE RILES VIÑA SANTA ALICIA S.A. Exp. Nº67/06 (e-seia)</t>
+          <t>Sistema de tratamiento y disposición de residuos industriales liquidos Viña El Principal Exp. Nº97/06 (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Viña Santa Alicia S.A.</t>
+          <t>Viña El Principal S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>30/08/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1503652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1642277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>EXTRACCION Y SELECCIÓN, DE ARIDOS EN RÍO CLARILLO, PARA OBRAS DE ENCAUZAMIENTO CANAL EL ZANJON Y DEFENSAS FLUVIALES RÍO CLARILLO EN PREDIO ISLA DE PIRQUE, DE LA PONTIFICIA UNIVERSIDAD CATOLICA DE CHILE. (e-seia)</t>
+          <t>TRATAMIENTO Y DISPOSICIÓN DE RILES VIÑA SANTA ALICIA S.A. Exp. Nº67/06 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pontificia Universidad Católica de Chile</t>
+          <t>Viña Santa Alicia S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1471853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1503652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN Y SELECCIÓN DE ÁRIDOS EN RÍO CLARILLO OBRAS DE ENCAUZAMIENTO CANAL EL ZANJON Y DEFENSAS FLUVIALES RÍO CLARILLO EN PREDIO ISLA DE PIRQUE DE LA PONTIFICIA UNIVERSIDAD CATOLICA DE CHILE (e-seia)</t>
+          <t>EXTRACCION Y SELECCIÓN, DE ARIDOS EN RÍO CLARILLO, PARA OBRAS DE ENCAUZAMIENTO CANAL EL ZANJON Y DEFENSAS FLUVIALES RÍO CLARILLO EN PREDIO ISLA DE PIRQUE, DE LA PONTIFICIA UNIVERSIDAD CATOLICA DE CHILE. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CARLOS WILLIAMSON BENAPRES</t>
+          <t>Pontificia Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/05/2006</t>
+          <t>02/06/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1439167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1471853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>EXTRACCIÓN Y SELECCIÓN DE ÁRIDOS EN RÍO CLARILLO OBRAS DE ENCAUZAMIENTO CANAL EL ZANJON Y DEFENSAS FLUVIALES RÍO CLARILLO EN PREDIO ISLA DE PIRQUE DE LA PONTIFICIA UNIVERSIDAD CATOLICA DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>CARLOS WILLIAMSON BENAPRES</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>15/05/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1439167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Manejo y Tratamiento de RILES Viña Santa Alicia S.A. Exp. Nº004/2006 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Viña Santa Alicia S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>30/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Manejo y Tratamiento de RILES Viña Santa Alicia S.A. Exp. Nº004/2006 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Viña Santa Alicia S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>30/12/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Manejo de Aguas Servidas y Riles de la Bodega de Vinos y Producción Pirque (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>650</v>
+        <v>160</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Manejo de Aguas Servidas y Riles de la Bodega Pirque Exp. Nº117/2005. (e-seia)</t>
+          <t>Manejo de Aguas Servidas y Riles de la Bodega de Vinos y Producción Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1055903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Regularización y Ampliación Red de Agua Potable Rural - Aguas Pirque S.A. (e-seia)</t>
+          <t>Manejo de Aguas Servidas y Riles de la Bodega Pirque Exp. Nº117/2005. (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Aguas Pirque S.A.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/09/2005</t>
+          <t>13/10/2005</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1035728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1055903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Regularización y Ampliación Red de Agua Potable Rural - Aguas Pirque S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Aguas Pirque S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>26/09/2005</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1035728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Regularización y Ampliación Red de Agua potable Rural - Aguas Pirque (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Aguas Pirque S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Regulación y Ampliación Red de Agua Potable Rural-Aguas Pique S.A. (e-seia)</t>
+          <t>Proyecto Regularización y Ampliación Red de Agua potable Rural - Aguas Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Diógenes Ramírez Arriagada</t>
+          <t>Aguas Pirque S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>30/08/2005</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LOTE 1, PARCELA 11, PARCELACIÓN EL LLANO DE PIRQUE (e-seia)</t>
+          <t>Regulación y Ampliación Red de Agua Potable Rural-Aguas Pique S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Luis Maldonado Catalán</t>
+          <t>Diógenes Ramírez Arriagada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1596</v>
+        <v>160</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>07/06/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>LOTE 1, PARCELA 11, PARCELACIÓN EL LLANO DE PIRQUE (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Luis Maldonado Catalán</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1596</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>07/06/2005</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE RURAL DE LA LOCALIDAD DE EL PRINCIPAL (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/02/2005</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=596291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN Y PROCESAMIENTODE DE ÁRIDOS SOBRETAMAÑO EN CAUCE DEL RÍO MAIPO (e-seia)</t>
+          <t>AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE RURAL DE LA LOCALIDAD DE EL PRINCIPAL (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>AGREP S.A.</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>120</v>
+        <v>858</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>28/01/2005</t>
+          <t>15/02/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=596291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>EXTRACCION Y PROCESAMIENTO DE ARIDOS SOBRE TAMAÑO EN CAUCE DEL RIO MAIPO (e-seia)</t>
+          <t>EXTRACCIÓN Y PROCESAMIENTODE DE ÁRIDOS SOBRETAMAÑO EN CAUCE DEL RÍO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6111,17 +6111,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>28/01/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>EXTRACCION Y PROCESAMIENTO DE ARIDOS SOBRE TAMAÑO EN CAUCE DEL RIO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGREP S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Senderos de Chile Tramo Quebrada Los Bueyes Reserva Nacional de Río Clarillo (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mejoramiento El Bosque de El Principal (e-seia)</t>
+          <t>Senderos de Chile Tramo Quebrada Los Bueyes Reserva Nacional de Río Clarillo (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1786</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>23/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Mejoramiento El Bosque de El Principal (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1786</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>23/09/2004</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN Y PROCESAMIENTODE DE ÁRIDOS SOBRETAMAÑO EN CAUCE DEL RÍO MAIPO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>AGREP S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>EXTRACCIÓN Y PROCESAMIENTODE DE ÁRIDOS SOBRETAMAÑO EN CAUCE DEL RÍO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGREP S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Rehabilitacisn de Suelo en Parcela 41, San Vicente, Pirque (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Aridos Tamy y Cía Ltda</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=179259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto Planta de Humus de Lombriz en Pirque (e-seia)</t>
+          <t>Rehabilitacisn de Suelo en Parcela 41, San Vicente, Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ecosfera Consultores Limitada</t>
+          <t>Aridos Tamy y Cía Ltda</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>19/06/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=179259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Proyecto Planta de Humus de Lombriz en Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Ecosfera Consultores Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>19/06/2003</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto de Mejoramiento de cruce Estero Clarillo Ramal La Isla</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Asociación de Canalistas del Canal de Pirque</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Estación de Servicio Pronto COPEC Pirque</t>
+          <t>Proyecto de Mejoramiento de cruce Estero Clarillo Ramal La Isla</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Asociación de Canalistas del Canal de Pirque</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>26/04/2002</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,30 +6760,30 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes Extensión a la VI Región Ruta San Vicente Caletones</t>
+          <t>Estación de Servicio Pronto COPEC Pirque</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>35000</v>
+        <v>370</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>06/02/2002</t>
+          <t>26/04/2002</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,30 +6808,30 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
+          <t>Gasoducto GasAndes Extensión a la VI Región Ruta San Vicente Caletones</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gasoducto GasAndes S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>06/02/2002</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tranque para Riego Fundo Las Bandurrias San Vicente Comuna de Pirque Región Metropolitana</t>
+          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Miguel González Serrano</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>24/07/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,30 +6904,30 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Tranque para Riego Fundo Las Bandurrias San Vicente Comuna de Pirque Región Metropolitana</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Miguel González Serrano</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1230</v>
+        <v>110</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>24/07/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,30 +6952,30 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7071,17 +7071,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Refuerzo del Tramo Buin-La Pintana Línea 110 kV Buin-La Florida</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>29/12/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Viña Concha y Toro</t>
+          <t>Refuerzo del Tramo Buin-La Pintana Línea 110 kV Buin-La Florida</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>40</v>
+        <v>28000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>21/08/2000</t>
+          <t>29/12/2000</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Aumento de Voltaje Línea de Transmisión (66kV a 110kV) desde S/E Maipo a S/E CMPC/Puente Alto y Construcción de Nueva S/E CMPC/Puente Alto</t>
+          <t>Planta de Tratamiento de Aguas Servidas Viña Concha y Toro</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Papeles Cordillera SpA</t>
+          <t>Viña Concha y Toro</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2370</v>
+        <v>40</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>10/08/2000</t>
+          <t>21/08/2000</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Comuna de Pirque</t>
+          <t>Aumento de Voltaje Línea de Transmisión (66kV a 110kV) desde S/E Maipo a S/E CMPC/Puente Alto y Construcción de Nueva S/E CMPC/Puente Alto</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>Papeles Cordillera SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1800</v>
+        <v>2370</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>07/06/2000</t>
+          <t>10/08/2000</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,12 +7288,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Plan Seccional El Principal</t>
+          <t>Villorrio Agrícola Comuna de Pirque</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7307,21 +7307,21 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>14/09/1998</t>
+          <t>07/06/2000</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos de Prunesco</t>
+          <t>Plan Seccional El Principal</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Prunesco</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7359,20 +7359,68 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
+          <t>14/09/1998</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1446&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Pirque</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos de Prunesco</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Prunesco</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
           <t>16/01/1998</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>Pirque</t>
         </is>

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos en Río Maipo Km 1+000 a Km 2+000 Aguas Abajo del Puente San Ramón</t>
+          <t>Captación y Conducción Alternativa en el Río Maipo para Incrementar la Seguridad de Abastecimiento de Agua Potable para la Población</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HORMIGONES TRANSEX LIMITADA</t>
+          <t>Aguas Andinas S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>80000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/07/2023</t>
+          <t>20/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159469274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160543009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Los Maitenes</t>
+          <t>Extracción Mecanizada de Áridos en Río Maipo Km 1+000 a Km 2+000 Aguas Abajo del Puente San Ramón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>HORMIGONES TRANSEX LIMITADA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154768730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159469274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos en Río Maipo Km 3+550 a Km 5+600 Aguas Abajo del Puente San Ramón</t>
+          <t>Parque Solar Fotovoltaico Los Maitenes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13/12/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154243372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154768730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DISTRIBUCIÓN DE AGUA POTABLE A LOTEO LOS NOGALES EMPRESA AGUA POTABLE PIRQUE S.A.</t>
+          <t>Extracción Mecanizada de Áridos en Río Maipo Km 3+550 a Km 5+600 Aguas Abajo del Puente San Ramón</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EMPRESA DE AGUA POTABLE PIRQUE S.A.</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/11/2020</t>
+          <t>13/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148914650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154243372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Pirque Solaris</t>
+          <t>DISTRIBUCIÓN DE AGUA POTABLE A LOTEO LOS NOGALES EMPRESA AGUA POTABLE PIRQUE S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Los Maitenes Solar SpA</t>
+          <t>EMPRESA DE AGUA POTABLE PIRQUE S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>44000</v>
+        <v>126</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>19/11/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145980342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148914650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regularización de Planta de Producción y Bodegas de Almacenamiento Pirque</t>
+          <t>Parque Fotovoltaico Pirque Solaris</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Los Maitenes Solar SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>44000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30/01/2018</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138229262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145980342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"Explotación de la Concesión D.E. Nº 1.137. Rio Maipo, Sector: Tramo 43-34 y Banco Decantador 40-37".</t>
+          <t>Regularización de Planta de Producción y Bodegas de Almacenamiento Pirque</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPLOTADORA DE ARIDOS CAVILU SPA</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>06/06/2017</t>
+          <t>30/01/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132441687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138229262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Explotación de la Concesión D.E. Nº 1.137. Río Maipo, Sector: Tramo 43-34 y Banco Decantador 40-37</t>
+          <t>"Explotación de la Concesión D.E. Nº 1.137. Rio Maipo, Sector: Tramo 43-34 y Banco Decantador 40-37".</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>06/06/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132389586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132441687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CONCESION DE EXTRACCION DE ARIDOS EN EL RIO MAIPO SECTOR PONIENTE, TRAMOS 43-40, 40-37, 37-34 Y BANCO DECANTADOR DENOMINADO 40-37.</t>
+          <t>Explotación de la Concesión D.E. Nº 1.137. Río Maipo, Sector: Tramo 43-34 y Banco Decantador 40-37</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13/01/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132067304&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132389586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
+          <t>CONCESION DE EXTRACCION DE ARIDOS EN EL RIO MAIPO SECTOR PONIENTE, TRAMOS 43-40, 40-37, 37-34 Y BANCO DECANTADOR DENOMINADO 40-37.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>SOCIEDAD EXPLOTADORA DE ARIDOS CAVILU SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>85000</v>
+        <v>200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/09/2016</t>
+          <t>13/01/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132067304&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Los Espinos</t>
+          <t>"Estanques de Reserva de Agua para Consumo Humano, Región Metropolitana"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Unión Comunal de Comité Sin Casa N° 4</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6189</v>
+        <v>85000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/02/2014</t>
+          <t>07/09/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129266765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131743627&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/02/2014</t>
+          <t>24/02/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129177105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129266765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129254293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129177105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Regularización Unidad de Generación N°3 Central Puntilla</t>
+          <t>Proyecto Habitacional Los Espinos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ELECTRICA PUNTILLA S.A.</t>
+          <t>Unión Comunal de Comité Sin Casa N° 4</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4385</v>
+        <v>6189</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>18/02/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129254293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Unidad de Generación N°3 Central Puntilla</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ELECTRICA PUNTILLA S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>4385</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extracción de Áridos en el Río Maipo, KM. 2,50 al 6,00, aguas abajo Puente San Ramón comuna de Puente Alto, Región Metropolitana.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad Minera Rosario Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14/12/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7639759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Extracción de Áridos en el Río Maipo, KM. 2,50 al 6,00, aguas abajo Puente San Ramón comuna de Puente Alto, Región Metropolitana.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Sociedad Minera Rosario Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>14/12/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7639759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Prunesco SpA</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271227&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Modificación Sistema de Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Prunesco SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>16/11/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6271227&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Prunesco SpA</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02/11/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6190912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Modificación Sistema de Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Prunesco SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6190912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>350</v>
+        <v>1750</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Modificación del sistema de tratamiento y disposición de residuos industriales liquidos de viña El Principal" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Viña El Principal S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/01/2010</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4301270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificación del sistema de tratamiento y disposición de residuos industriales liquidos de viña El Principal (e-seia)</t>
+          <t>"Modificación del sistema de tratamiento y disposición de residuos industriales liquidos de viña El Principal" (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>06/01/2010</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4271173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4301270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE Y REHABILITACIÓN AMBIENTAL DE POZO DE EXTRACCION DE ÁRIDOS (e-seia)</t>
+          <t>Modificación del sistema de tratamiento y disposición de residuos industriales liquidos de viña El Principal (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Rene Quintar Rodriguez</t>
+          <t>Viña El Principal S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/10/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4044457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4271173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE PARTICULAR DE LA EMPRESA AGUAS PIRQUE S.A. (e-seia)</t>
+          <t>PLAN DE CIERRE Y REHABILITACIÓN AMBIENTAL DE POZO DE EXTRACCION DE ÁRIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AGUAS PIRQUE S.A.</t>
+          <t>Rene Quintar Rodriguez</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1900</v>
+        <v>105</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>07/10/2009</t>
+          <t>29/10/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4094056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4044457&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE PARTICULAR DE LA EMPRESA AGUAS PIRQUE S.A (e-seia)</t>
+          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE PARTICULAR DE LA EMPRESA AGUAS PIRQUE S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,21 +2555,21 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/09/2009</t>
+          <t>07/10/2009</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4094056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE PARTICULAR DE LA EMPRESA AGUAS PIRQUE S.A (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AGUAS PIRQUE S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>29/09/2009</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4075155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE PRODUCCIÓN Y DISTRIBUCIÓN DE AGUA POTABLE RURAL DE LA EMPRESA AGUAS PIRQUE (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AGUAS PIRQUE S.A.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3780115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MEJORA Y AMPLIACIÓN DEL SERVICIO DE PRODUCCIÓN Y DISTRIBUCIÓN DE AGUA POTABLE RURAL DE LA EMPRESA AGUAS PIRQUE (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>AGUAS PIRQUE S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>26/06/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3780115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Agua Potable San Vicente-Lo Arcaya de Pirque (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2649002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Mejoramiento Sistema de Agua Potable San Vicente-Lo Arcaya de Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>234</v>
+        <v>1600</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>18/01/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2649002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mejoramiento Sistema de Agua Potable San Vicente - Lo Arcaya (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>234</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>19/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Mejoramiento Sistema de Agua Potable San Vicente - Lo Arcaya (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>234</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>19/10/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Extraccion de Arenas Isla de Pirque (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Pontificia Universidad Católica de Chile</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CENTRO MULTICULTURAL LOS ALMENDRALES DE PIRQUE (e-seia)</t>
+          <t>Extraccion de Arenas Isla de Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CHRISTIAN HITSCHFELD JIMENEZ</t>
+          <t>Pontificia Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3700</v>
+        <v>350</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2331069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>CENTRO MULTICULTURAL LOS ALMENDRALES DE PIRQUE (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,16 +4178,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>CHRISTIAN HITSCHFELD JIMENEZ</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>210</v>
+        <v>3700</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2313449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Proyecto Tienda de Abastecimiento Trayken Exp. N° 072/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Paola Beatriz Pérez Del Castillo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto Tienda de Abastecimiento Trayken Exp. N° 072/07 (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Paola Beatriz Pérez Del Castillo</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>27/04/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2100886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,16 +4562,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE RILES Y RISES PRUNESCO S.A. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Prunesco SpA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>04/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>MODIFICACIÓN PLANTA DE TRATAMIENTO DE RILES Y RISES PRUNESCO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Prunesco SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>04/01/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1904339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mejoramiento Campo Deportivo Municipal Los Corrales Exp. Nº002/07 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jaime Escudero Ramos</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1029</v>
+        <v>200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>28/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Mejoramiento Campo Deportivo Municipal Los Corrales Exp. Nº002/07 (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Jaime Escudero Ramos</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>28/12/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1896356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de Residuos Industriales Líquidos Viña William Fevre Chile S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Viña William Fevre Chile S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>03/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento y disposición de residuos industriales liquidos Viña El Principal Exp. Nº97/06 (e-seia)</t>
+          <t>Sistema de tratamiento de Residuos Industriales Líquidos Viña William Fevre Chile S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Viña El Principal S.A.</t>
+          <t>Viña William Fevre Chile S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/08/2006</t>
+          <t>03/10/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1642277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1712013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRATAMIENTO Y DISPOSICIÓN DE RILES VIÑA SANTA ALICIA S.A. Exp. Nº67/06 (e-seia)</t>
+          <t>Sistema de tratamiento y disposición de residuos industriales liquidos Viña El Principal Exp. Nº97/06 (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Viña Santa Alicia S.A.</t>
+          <t>Viña El Principal S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>30/08/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1503652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1642277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EXTRACCION Y SELECCIÓN, DE ARIDOS EN RÍO CLARILLO, PARA OBRAS DE ENCAUZAMIENTO CANAL EL ZANJON Y DEFENSAS FLUVIALES RÍO CLARILLO EN PREDIO ISLA DE PIRQUE, DE LA PONTIFICIA UNIVERSIDAD CATOLICA DE CHILE. (e-seia)</t>
+          <t>TRATAMIENTO Y DISPOSICIÓN DE RILES VIÑA SANTA ALICIA S.A. Exp. Nº67/06 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Pontificia Universidad Católica de Chile</t>
+          <t>Viña Santa Alicia S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1471853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1503652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN Y SELECCIÓN DE ÁRIDOS EN RÍO CLARILLO OBRAS DE ENCAUZAMIENTO CANAL EL ZANJON Y DEFENSAS FLUVIALES RÍO CLARILLO EN PREDIO ISLA DE PIRQUE DE LA PONTIFICIA UNIVERSIDAD CATOLICA DE CHILE (e-seia)</t>
+          <t>EXTRACCION Y SELECCIÓN, DE ARIDOS EN RÍO CLARILLO, PARA OBRAS DE ENCAUZAMIENTO CANAL EL ZANJON Y DEFENSAS FLUVIALES RÍO CLARILLO EN PREDIO ISLA DE PIRQUE, DE LA PONTIFICIA UNIVERSIDAD CATOLICA DE CHILE. (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CARLOS WILLIAMSON BENAPRES</t>
+          <t>Pontificia Universidad Católica de Chile</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15/05/2006</t>
+          <t>02/06/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1439167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1471853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>EXTRACCIÓN Y SELECCIÓN DE ÁRIDOS EN RÍO CLARILLO OBRAS DE ENCAUZAMIENTO CANAL EL ZANJON Y DEFENSAS FLUVIALES RÍO CLARILLO EN PREDIO ISLA DE PIRQUE DE LA PONTIFICIA UNIVERSIDAD CATOLICA DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>CARLOS WILLIAMSON BENAPRES</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>15/05/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1439167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Manejo y Tratamiento de RILES Viña Santa Alicia S.A. Exp. Nº004/2006 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Viña Santa Alicia S.A.</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>30/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Manejo y Tratamiento de RILES Viña Santa Alicia S.A. Exp. Nº004/2006 (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Viña Santa Alicia S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>30/12/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1192052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Manejo de Aguas Servidas y Riles de la Bodega de Vinos y Producción Pirque (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>650</v>
+        <v>160</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Manejo de Aguas Servidas y Riles de la Bodega Pirque Exp. Nº117/2005. (e-seia)</t>
+          <t>Manejo de Aguas Servidas y Riles de la Bodega de Vinos y Producción Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/10/2005</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1055903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1085496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Regularización y Ampliación Red de Agua Potable Rural - Aguas Pirque S.A. (e-seia)</t>
+          <t>Manejo de Aguas Servidas y Riles de la Bodega Pirque Exp. Nº117/2005. (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Aguas Pirque S.A.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>26/09/2005</t>
+          <t>13/10/2005</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1035728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1055903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Regularización y Ampliación Red de Agua Potable Rural - Aguas Pirque S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,20 +5714,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Aguas Pirque S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>26/09/2005</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1035728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Regularización y Ampliación Red de Agua potable Rural - Aguas Pirque (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Aguas Pirque S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Regulación y Ampliación Red de Agua Potable Rural-Aguas Pique S.A. (e-seia)</t>
+          <t>Proyecto Regularización y Ampliación Red de Agua potable Rural - Aguas Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Diógenes Ramírez Arriagada</t>
+          <t>Aguas Pirque S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>02/08/2005</t>
+          <t>30/08/2005</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>LOTE 1, PARCELA 11, PARCELACIÓN EL LLANO DE PIRQUE (e-seia)</t>
+          <t>Regulación y Ampliación Red de Agua Potable Rural-Aguas Pique S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Luis Maldonado Catalán</t>
+          <t>Diógenes Ramírez Arriagada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1596</v>
+        <v>160</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>07/06/2005</t>
+          <t>02/08/2005</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=953641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>LOTE 1, PARCELA 11, PARCELACIÓN EL LLANO DE PIRQUE (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Luis Maldonado Catalán</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1596</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>07/06/2005</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE RURAL DE LA LOCALIDAD DE EL PRINCIPAL (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15/02/2005</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=596291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN Y PROCESAMIENTODE DE ÁRIDOS SOBRETAMAÑO EN CAUCE DEL RÍO MAIPO (e-seia)</t>
+          <t>AMPLIACIÓN DEL SERVICIO DE AGUA POTABLE RURAL DE LA LOCALIDAD DE EL PRINCIPAL (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AGREP S.A.</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>120</v>
+        <v>858</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>28/01/2005</t>
+          <t>15/02/2005</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=596291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>EXTRACCION Y PROCESAMIENTO DE ARIDOS SOBRE TAMAÑO EN CAUCE DEL RIO MAIPO (e-seia)</t>
+          <t>EXTRACCIÓN Y PROCESAMIENTODE DE ÁRIDOS SOBRETAMAÑO EN CAUCE DEL RÍO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>28/01/2005</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=577389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>EXTRACCION Y PROCESAMIENTO DE ARIDOS SOBRE TAMAÑO EN CAUCE DEL RIO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGREP S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=549436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Senderos de Chile Tramo Quebrada Los Bueyes Reserva Nacional de Río Clarillo (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mejoramiento El Bosque de El Principal (e-seia)</t>
+          <t>Senderos de Chile Tramo Quebrada Los Bueyes Reserva Nacional de Río Clarillo (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1786</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Mejoramiento El Bosque de El Principal (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,20 +6386,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1786</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>23/09/2004</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN Y PROCESAMIENTODE DE ÁRIDOS SOBRETAMAÑO EN CAUCE DEL RÍO MAIPO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>AGREP S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>02/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>EXTRACCIÓN Y PROCESAMIENTODE DE ÁRIDOS SOBRETAMAÑO EN CAUCE DEL RÍO MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGREP S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>02/06/2004</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Rehabilitacisn de Suelo en Parcela 41, San Vicente, Pirque (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Aridos Tamy y Cía Ltda</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>23/10/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=179259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto Planta de Humus de Lombriz en Pirque (e-seia)</t>
+          <t>Rehabilitacisn de Suelo en Parcela 41, San Vicente, Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Ecosfera Consultores Limitada</t>
+          <t>Aridos Tamy y Cía Ltda</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>19/06/2003</t>
+          <t>23/10/2003</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=179259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Proyecto Planta de Humus de Lombriz en Pirque (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Ecosfera Consultores Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>19/06/2003</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=80865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto de Mejoramiento de cruce Estero Clarillo Ramal La Isla</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Asociación de Canalistas del Canal de Pirque</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Estación de Servicio Pronto COPEC Pirque</t>
+          <t>Proyecto de Mejoramiento de cruce Estero Clarillo Ramal La Isla</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
+          <t>Asociación de Canalistas del Canal de Pirque</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>26/04/2002</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,30 +6808,30 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes Extensión a la VI Región Ruta San Vicente Caletones</t>
+          <t>Estación de Servicio Pronto COPEC Pirque</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Gasoducto GasAndes S.A.</t>
+          <t>Compañía de Petróleos de Chile COPEC S.A...</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>35000</v>
+        <v>370</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>06/02/2002</t>
+          <t>26/04/2002</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,30 +6856,30 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
+          <t>Gasoducto GasAndes Extensión a la VI Región Ruta San Vicente Caletones</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Gasoducto GasAndes S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>08/11/2001</t>
+          <t>06/02/2002</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tranque para Riego Fundo Las Bandurrias San Vicente Comuna de Pirque Región Metropolitana</t>
+          <t>Modificación del Plan Regulador Metropolitano de Santiago (PRMS-48) Desarrollos Urbanos Condicionados en ISAM</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Miguel González Serrano</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>24/07/2001</t>
+          <t>08/11/2001</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,30 +6952,30 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Tranque para Riego Fundo Las Bandurrias San Vicente Comuna de Pirque Región Metropolitana</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Miguel González Serrano</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1230</v>
+        <v>110</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>24/07/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,30 +7000,30 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Modificación PRMS-20 Areas de Equipamiento Periférico</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>11/05/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7119,17 +7119,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Refuerzo del Tramo Buin-La Pintana Línea 110 kV Buin-La Florida</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>29/12/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3484&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Viña Concha y Toro</t>
+          <t>Refuerzo del Tramo Buin-La Pintana Línea 110 kV Buin-La Florida</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>40</v>
+        <v>28000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>21/08/2000</t>
+          <t>29/12/2000</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3484&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Aumento de Voltaje Línea de Transmisión (66kV a 110kV) desde S/E Maipo a S/E CMPC/Puente Alto y Construcción de Nueva S/E CMPC/Puente Alto</t>
+          <t>Planta de Tratamiento de Aguas Servidas Viña Concha y Toro</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Papeles Cordillera SpA</t>
+          <t>Viña Concha y Toro</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2370</v>
+        <v>40</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>10/08/2000</t>
+          <t>21/08/2000</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Comuna de Pirque</t>
+          <t>Aumento de Voltaje Línea de Transmisión (66kV a 110kV) desde S/E Maipo a S/E CMPC/Puente Alto y Construcción de Nueva S/E CMPC/Puente Alto</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pirque</t>
+          <t>Papeles Cordillera SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1800</v>
+        <v>2370</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>07/06/2000</t>
+          <t>10/08/2000</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Plan Seccional El Principal</t>
+          <t>Villorrio Agrícola Comuna de Pirque</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7355,21 +7355,21 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>14/09/1998</t>
+          <t>07/06/2000</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2898&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos de Prunesco</t>
+          <t>Plan Seccional El Principal</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Prunesco</t>
+          <t>Ilustre Municipalidad de Pirque</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7407,20 +7407,68 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
+          <t>14/09/1998</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1446&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Pirque</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos de Prunesco</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Prunesco</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
           <t>16/01/1998</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>Pirque</t>
         </is>

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">

--- a/data/Pirque.xlsx
+++ b/data/Pirque.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
